--- a/output/aBiblio- Resort 23-24.xlsx_output.xlsx
+++ b/output/aBiblio- Resort 23-24.xlsx_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="98">
   <si>
     <t>Serial</t>
   </si>
@@ -205,772 +205,211 @@
     <t>reservation date not valid</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         40           -0.0           -0.0      -0.0           0           0 3 days  120.0              120.0        294.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31         58           -0.0           -0.0      -0.0           0           0 3 days  174.0              174.0        294.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28         40           -0.0           -0.0  ...  3 days  120.0              120.0       300.0  spo 25.11 to 20.12
+1 2023-12-29  2023-12-31         60           -0.0           -0.0  ...  3 days  180.0              180.0       300.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         32           -0.0           -0.0      -0.0           0           0 3 days   96.0               96.0        234.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31         46           -0.0           -0.0      -0.0           0           0 3 days  138.0              138.0        234.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-25  2023-12-28         44           -0.0           -0.0  ...  4 days  176.0              176.0       386.0  spo 04.11 to 16.11
+1 2023-12-29  2023-12-31         70           -0.0           -0.0  ...  3 days  210.0              210.0       386.0  spo 04.11 to 16.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2023-12-31        64           -0.0           -0.0      -0.0           0           0 1 days   64.0               64.0         64.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-23  2023-12-28         32           -0.0           -0.0  ...  6 days  192.0              192.0       336.0  spo 25.11 to 20.12
+1 2023-12-29  2023-12-31         48           -0.0           -0.0  ...  3 days  144.0              144.0       336.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28         40           -0.0           -0.0      -0.0           0           0 4 days  160.0              160.0        334.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31         58           -0.0           -0.0      -0.0           0           0 3 days  174.0              174.0        334.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28         32           -0.0           -0.0  ...  3 days   96.0               96.0       240.0  spo 25.11 to 20.12
+1 2023-12-29  2023-12-31         48           -0.0           -0.0  ...  3 days  144.0              144.0       240.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  TPL - J.S  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28         84           -0.0           -0.0      -0.0           0           0 4 days  336.0              336.0        669.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31        111           -0.0           -0.0      -0.0           0           0 3 days  333.0              333.0        669.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-25  2023-12-28         40           -0.0           -0.0  ...  4 days  160.0              160.0       340.0  spo 25.11 to 20.12
+1 2023-12-29  2023-12-31         60           -0.0           -0.0  ...  3 days  180.0              180.0       340.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         40           -0.0           -0.0      -0.0           0           0 3 days  120.0              120.0        300.0  spo 25.11 to 20.12
-1 2023-12-29  2023-12-31         60           -0.0           -0.0      -0.0           0           0 3 days  180.0              180.0        300.0  spo 25.11 to 20.12</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28         40           -0.0           -0.0  ...  3 days  120.0              120.0       360.0  spo 25.11 to 20.12
+1 2023-12-29  2024-01-01         60           -0.0           -0.0  ...  4 days  240.0              240.0       360.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28         44           -0.0           -0.0      -0.0           0           0 4 days  176.0              176.0        386.0  spo 04.11 to 16.11
-1 2023-12-29  2023-12-31         70           -0.0           -0.0      -0.0           0           0 3 days  210.0              210.0        386.0  spo 04.11 to 16.11</t>
+    <t xml:space="preserve">  first date second date  DBL - FAM  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28         70           -0.0           -0.0  ...  3 days  210.0              210.0       570.0  spo 25.11 to 20.12
+1 2023-12-29  2024-01-01         90           -0.0           -0.0  ...  4 days  360.0              360.0       570.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28        46           -0.0           -0.0      -0.0           0           0 4 days  184.0              184.0        376.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31        64           -0.0           -0.0      -0.0           0           0 3 days  192.0              192.0        376.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28        50           -0.0           -0.0  ...  3 days  150.0              150.0       454.0  spo 04.11 to 16.11
+1 2023-12-29  2024-01-01        76           -0.0           -0.0  ...  4 days  304.0              304.0       454.0  spo 04.11 to 16.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-23  2023-12-28         32           -0.0           -0.0      -0.0           0           0 6 days  192.0              192.0        330.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31         46           -0.0           -0.0      -0.0           0           0 3 days  138.0              138.0        330.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28        46           -0.0           -0.0  ...  3 days  138.0              138.0       402.0  spo 25.11 to 20.12
+1 2023-12-29  2024-01-01        66           -0.0           -0.0  ...  4 days  264.0              264.0       402.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-23  2023-12-28         32           -0.0           -0.0      -0.0           0           0 6 days  192.0              192.0        336.0  spo 25.11 to 20.12
-1 2023-12-29  2023-12-31         48           -0.0           -0.0      -0.0           0           0 3 days  144.0              144.0        336.0  spo 25.11 to 20.12</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28         44           -0.0           -0.0  ...  3 days  132.0              132.0       412.0  spo 04.11 to 16.11
+1 2023-12-29  2024-01-01         70           -0.0           -0.0  ...  4 days  280.0              280.0       412.0  spo 04.11 to 16.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-23  2023-12-28         40           -0.0           -0.0      -0.0           0           0 6 days  240.0              240.0        414.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31         58           -0.0           -0.0      -0.0           0           0 3 days  174.0              174.0        414.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-20  2023-12-28         40           -0.0           -0.0  ...  9 days  360.0              360.0       600.0  spo 25.11 to 20.12
+1 2023-12-29  2024-01-01         60           -0.0           -0.0  ...  4 days  240.0              240.0       600.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-23  2023-12-28        46           -0.0           -0.0      -0.0           0           0 6 days  276.0              276.0        468.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31        64           -0.0           -0.0      -0.0           0           0 3 days  192.0              192.0        468.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-29  2024-01-02         70           -0.0           -0.0  ...  5 days  350.0              350.0       350.0  spo 04.11 to 16.11
+[1 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         32           -0.0           -0.0      -0.0           0           0 3 days   96.0               96.0        240.0  spo 25.11 to 20.12
-1 2023-12-29  2023-12-31         48           -0.0           -0.0      -0.0           0           0 3 days  144.0              144.0        240.0  spo 25.11 to 20.12</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-27  2023-12-28         40           -0.0           -0.0  ...  2 days   80.0               80.0       380.0  spo 25.11 to 20.12
+1 2023-12-29  2024-01-02         60           -0.0           -0.0  ...  5 days  300.0              300.0       380.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28         40           -0.0           -0.0      -0.0           0           0 4 days  160.0              160.0        340.0  spo 25.11 to 20.12
-1 2023-12-29  2023-12-31         60           -0.0           -0.0      -0.0           0           0 3 days  180.0              180.0        340.0  spo 25.11 to 20.12</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-28  2023-12-28         36           -0.0           -0.0  ...  1 days   36.0               36.0       316.0  spo 24.11 to 24.11
+1 2023-12-29  2024-01-02         56           -0.0           -0.0  ...  5 days  280.0              280.0       316.0  spo 24.11 to 24.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28         32           -0.0           -0.0      -0.0           0           0 4 days  128.0              128.0        266.0  spo 21.12 to 31.01
-1 2023-12-29  2023-12-31         46           -0.0           -0.0      -0.0           0           0 3 days  138.0              138.0        266.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-28  2023-12-28         40           -0.0           -0.0  ...  1 days   40.0               40.0       400.0  spo 25.11 to 20.12
+1 2023-12-29  2024-01-03         60           -0.0           -0.0  ...  6 days  360.0              360.0       400.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         40           -0.0           -0.0      -0.0           0           0 3 days  120.0              120.0        360.0  spo 25.11 to 20.12
-1 2023-12-29  2024-01-01         60           -0.0           -0.0      -0.0           0           0 4 days  240.0              240.0        360.0  spo 25.11 to 20.12</t>
+    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28        42           -0.0           -0.0  ...  3 days  126.0              126.0       498.0  spo 24.11 to 24.11
+1 2023-12-29  2024-01-03        62           -0.0           -0.0  ...  6 days  372.0              372.0       498.0  spo 24.11 to 24.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         40           -0.0           -0.0      -0.0           0           0 3 days  120.0              120.0        352.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01         58           -0.0           -0.0      -0.0           0           0 4 days  232.0              232.0        352.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  TPL - J.S  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28         78           -0.0           -0.0  ...  3 days  234.0              234.0       882.0  spo 24.11 to 24.11
+1 2023-12-29  2024-01-03        108           -0.0           -0.0  ...  6 days  648.0              648.0       882.0  spo 24.11 to 24.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28         32           -0.0           -0.0      -0.0           0           0 4 days  128.0              128.0        312.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01         46           -0.0           -0.0      -0.0           0           0 4 days  184.0              184.0        312.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-26  2023-12-28         36           -0.0           -0.0  ...  3 days  108.0              108.0       444.0  spo 24.11 to 24.11
+1 2023-12-29  2024-01-03         56           -0.0           -0.0  ...  6 days  336.0              336.0       444.0  spo 24.11 to 24.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28         40           -0.0           -0.0      -0.0           0           0 4 days  160.0              160.0        392.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01         58           -0.0           -0.0      -0.0           0           0 4 days  232.0              232.0        392.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-28  2023-12-28        46           -0.0           -0.0  ...  1 days   46.0               46.0       442.0  spo 25.11 to 20.12
+1 2023-12-29  2024-01-03        66           -0.0           -0.0  ...  6 days  396.0              396.0       442.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-27  2023-12-28        46           -0.0           -0.0      -0.0           0           0 2 days   92.0               92.0        348.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01        64           -0.0           -0.0      -0.0           0           0 4 days  256.0              256.0        348.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-28  2023-12-28         29           -0.0           -0.0  ...  1 days   29.0               29.0       299.0  spo 24.11 to 24.11
+1 2023-12-29  2024-01-03         45           -0.0           -0.0  ...  6 days  270.0              270.0       299.0  spo 24.11 to 24.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - FAM  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         70           -0.0           -0.0      -0.0           0           0 3 days  210.0              210.0        570.0  spo 25.11 to 20.12
-1 2023-12-29  2024-01-01         90           -0.0           -0.0      -0.0           0           0 4 days  360.0              360.0        570.0  spo 25.11 to 20.12</t>
+    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-28  2023-12-28        42           -0.0           -0.0  ...  1 days   42.0               42.0       414.0  spo 24.11 to 24.11
+1 2023-12-29  2024-01-03        62           -0.0           -0.0  ...  6 days  372.0              372.0       414.0  spo 24.11 to 24.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28        50           -0.0           -0.0      -0.0           0           0 3 days  150.0              150.0        454.0  spo 04.11 to 16.11
-1 2023-12-29  2024-01-01        76           -0.0           -0.0      -0.0           0           0 4 days  304.0              304.0        454.0  spo 04.11 to 16.11</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-29  2024-01-04         70           -0.0           -0.0  ...  7 days  490.0              490.0       490.0  spo 04.11 to 16.11
+1 2024-01-05  2024-01-04         44           -0.0           -0.0  ...  0 days    0.0                0.0       490.0  spo 04.11 to 16.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28        46           -0.0           -0.0      -0.0           0           0 3 days  138.0              138.0        394.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01        64           -0.0           -0.0      -0.0           0           0 4 days  256.0              256.0        394.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-25  2023-12-28         40           -0.0           -0.0  ...  4 days  160.0              160.0       580.0  spo 25.11 to 20.12
+1 2023-12-29  2024-01-04         60           -0.0           -0.0  ...  7 days  420.0              420.0       580.0  spo 25.11 to 20.12
+2 2024-01-05  2024-01-04         40           -0.0           -0.0  ...  0 days    0.0                0.0       580.0  spo 25.11 to 20.12
+[3 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         32           -0.0           -0.0      -0.0           0           0 3 days   96.0               96.0        280.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01         46           -0.0           -0.0      -0.0           0           0 4 days  184.0              184.0        280.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-30  2024-01-04         60           -0.0           -0.0  ...  6 days  360.0              360.0       400.0  spo 25.11 to 20.12
+1 2024-01-05  2024-01-05         40           -0.0           -0.0  ...  1 days   40.0               40.0       400.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28        46           -0.0           -0.0      -0.0           0           0 3 days  138.0              138.0        402.0  spo 25.11 to 20.12
-1 2023-12-29  2024-01-01        66           -0.0           -0.0      -0.0           0           0 4 days  264.0              264.0        402.0  spo 25.11 to 20.12</t>
+    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-31  2024-01-04        66           -0.0           -0.0  ...  5 days  330.0              330.0       376.0  spo 25.11 to 20.12
+1 2024-01-05  2024-01-05        46           -0.0           -0.0  ...  1 days   46.0               46.0       376.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-23  2023-12-28         40           -0.0           -0.0      -0.0           0           0 6 days  240.0              240.0        472.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01         58           -0.0           -0.0      -0.0           0           0 4 days  232.0              232.0        472.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-30  2024-01-04        66           -0.0           -0.0  ...  6 days  396.0              396.0       442.0  spo 25.11 to 20.12
+1 2024-01-05  2024-01-05        46           -0.0           -0.0  ...  1 days   46.0               46.0       442.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-27  2023-12-28         40           -0.0           -0.0      -0.0           0           0 2 days   80.0               80.0        312.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01         58           -0.0           -0.0      -0.0           0           0 4 days  232.0              232.0        312.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-31  2024-01-04         56           -0.0           -0.0  ...  5 days  280.0              280.0       352.0  spo 24.11 to 24.11
+1 2024-01-05  2024-01-06         36           -0.0           -0.0  ...  2 days   72.0               72.0       352.0  spo 24.11 to 24.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-23  2023-12-28        46           -0.0           -0.0      -0.0           0           0 6 days  276.0              276.0        532.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-01        64           -0.0           -0.0      -0.0           0           0 4 days  256.0              256.0        532.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-31  2024-01-04         74           -0.0           -0.0  ...  5 days  370.0              370.0       466.0  spo 25.10 to 03.11
+1 2024-01-05  2024-01-06         48           -0.0           -0.0  ...  2 days   96.0               96.0       466.0  spo 25.10 to 03.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         44           -0.0           -0.0      -0.0           0           0 3 days  132.0              132.0        412.0  spo 04.11 to 16.11
-1 2023-12-29  2024-01-01         70           -0.0           -0.0      -0.0           0           0 4 days  280.0              280.0        412.0  spo 04.11 to 16.11</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-31  2024-01-04         70           -0.0           -0.0  ...  5 days  350.0              350.0       438.0  spo 04.11 to 16.11
+1 2024-01-05  2024-01-06         44           -0.0           -0.0  ...  2 days   88.0               88.0       438.0  spo 04.11 to 16.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-20  2023-12-28         40           -0.0           -0.0      -0.0           0           0 9 days  360.0              360.0        600.0  spo 25.11 to 20.12
-1 2023-12-29  2024-01-01         60           -0.0           -0.0      -0.0           0           0 4 days  240.0              240.0        600.0  spo 25.11 to 20.12</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2023-12-30  2024-01-04         60           -0.0           -0.0  ...  6 days  360.0              360.0       600.0  spo 25.11 to 20.12
+1 2024-01-05  2024-01-10         40           -0.0           -0.0  ...  6 days  240.0              240.0       600.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28         40           -0.0           -0.0      -0.0           0           0 1 days   40.0               40.0        330.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-02         58           -0.0           -0.0      -0.0           0           0 5 days  290.0              290.0        330.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2024-01-02  2024-01-04         60           -0.0           -0.0  ...  3 days  180.0              180.0       460.0  spo 25.11 to 20.12
+1 2024-01-05  2024-01-11         40           -0.0           -0.0  ...  7 days  280.0              280.0       460.0  spo 25.11 to 20.12
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-02         58           -0.0           -0.0      -0.0           0           0 4 days  232.0              232.0        232.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2024-01-05  2024-01-11        46           -0.0           -0.0  ...  7 days  322.0              322.0       322.0  spo 25.11 to 20.12
+[1 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-24  2023-12-28         40           -0.0           -0.0      -0.0           0           0 5 days  200.0              200.0        490.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-02         58           -0.0           -0.0      -0.0           0           0 5 days  290.0              290.0        490.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2024-01-06  2024-01-12         40           -0.0           -0.0  ...  7 days  280.0              280.0       280.0  spo 25.11 to 20.12
+[1 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-29  2024-01-02         70           -0.0           -0.0      -0.0           0           0 5 days  350.0              350.0        350.0  spo 04.11 to 16.11</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2024-01-04  2024-01-04         70           -0.0           -0.0  ...  1 days   70.0               70.0       642.0  spo 04.11 to 16.11
+1 2024-01-05  2024-01-17         44           -0.0           -0.0  ... 13 days  572.0              572.0       642.0  spo 04.11 to 16.11
+[2 rows x 13 columns]</t>
   </si>
   <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-27  2023-12-28         40           -0.0           -0.0      -0.0           0           0 2 days   80.0               80.0        370.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-02         58           -0.0           -0.0      -0.0           0           0 5 days  290.0              290.0        370.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-27  2023-12-28         40           -0.0           -0.0      -0.0           0           0 2 days   80.0               80.0        380.0  spo 25.11 to 20.12
-1 2023-12-29  2024-01-02         60           -0.0           -0.0      -0.0           0           0 5 days  300.0              300.0        380.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28         36           -0.0           -0.0      -0.0           0           0 1 days   36.0               36.0        316.0  spo 24.11 to 24.11
-1 2023-12-29  2024-01-02         56           -0.0           -0.0      -0.0           0           0 5 days  280.0              280.0        316.0  spo 24.11 to 24.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-27  2023-12-28         32           -0.0           -0.0      -0.0           0           0 2 days   64.0               64.0        294.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-02         46           -0.0           -0.0      -0.0           0           0 5 days  230.0              230.0        294.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28        46           -0.0           -0.0      -0.0           0           0 1 days   46.0               46.0        366.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-02        64           -0.0           -0.0      -0.0           0           0 5 days  320.0              320.0        366.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-24  2023-12-28         35           -0.0           -0.0      -0.0           0           0 5 days  175.0              175.0        469.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-03         49           -0.0           -0.0      -0.0           0           0 6 days  294.0              294.0        469.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-27  2023-12-28        46           -0.0           -0.0      -0.0           0           0 2 days   92.0               92.0        412.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-02        64           -0.0           -0.0      -0.0           0           0 5 days  320.0              320.0        412.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-29  2024-01-03         58           -0.0           -0.0      -0.0           0           0 6 days  348.0              348.0        348.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28         40           -0.0           -0.0      -0.0           0           0 1 days   40.0               40.0        400.0  spo 25.11 to 20.12
-1 2023-12-29  2024-01-03         60           -0.0           -0.0      -0.0           0           0 6 days  360.0              360.0        400.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28        42           -0.0           -0.0      -0.0           0           0 3 days  126.0              126.0        498.0  spo 24.11 to 24.11
-1 2023-12-29  2024-01-03        62           -0.0           -0.0      -0.0           0           0 6 days  372.0              372.0        498.0  spo 24.11 to 24.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  TPL - J.S  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         78           -0.0           -0.0      -0.0           0           0 3 days  234.0              234.0        882.0  spo 24.11 to 24.11
-1 2023-12-29  2024-01-03        108           -0.0           -0.0      -0.0           0           0 6 days  648.0              648.0        882.0  spo 24.11 to 24.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         36           -0.0           -0.0      -0.0           0           0 3 days  108.0              108.0        444.0  spo 24.11 to 24.11
-1 2023-12-29  2024-01-03         56           -0.0           -0.0      -0.0           0           0 6 days  336.0              336.0        444.0  spo 24.11 to 24.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28        46           -0.0           -0.0      -0.0           0           0 1 days   46.0               46.0        442.0  spo 25.11 to 20.12
-1 2023-12-29  2024-01-03        66           -0.0           -0.0      -0.0           0           0 6 days  396.0              396.0        442.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28         32           -0.0           -0.0      -0.0           0           0 1 days   32.0               32.0        308.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-03         46           -0.0           -0.0      -0.0           0           0 6 days  276.0              276.0        308.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-29  2024-01-03         46           -0.0           -0.0      -0.0           0           0 6 days  276.0              276.0        276.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28         40           -0.0           -0.0      -0.0           0           0 1 days   40.0               40.0        388.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-03         58           -0.0           -0.0      -0.0           0           0 6 days  348.0              348.0        388.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28         29           -0.0           -0.0      -0.0           0           0 1 days   29.0               29.0        299.0  spo 24.11 to 24.11
-1 2023-12-29  2024-01-03         45           -0.0           -0.0      -0.0           0           0 6 days  270.0              270.0        299.0  spo 24.11 to 24.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28        42           -0.0           -0.0      -0.0           0           0 1 days   42.0               42.0        414.0  spo 24.11 to 24.11
-1 2023-12-29  2024-01-03        62           -0.0           -0.0      -0.0           0           0 6 days  372.0              372.0        414.0  spo 24.11 to 24.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-28  2023-12-28        46           -0.0           -0.0      -0.0           0           0 1 days   46.0               46.0        430.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-03        64           -0.0           -0.0      -0.0           0           0 6 days  384.0              384.0        430.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         32           -0.0           -0.0      -0.0           0           0 3 days   96.0               96.0        372.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-03         46           -0.0           -0.0      -0.0           0           0 6 days  276.0              276.0        372.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28        46           -0.0           -0.0      -0.0           0           0 3 days  138.0              138.0        522.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-03        64           -0.0           -0.0      -0.0           0           0 6 days  384.0              384.0        522.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04         58           -0.0           -0.0      -0.0           0           0 6 days  348.0              348.0        348.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-04         38           -0.0           -0.0      -0.0           0           0 0 days    0.0                0.0        348.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-29  2024-01-04         70           -0.0           -0.0      -0.0           0           0 7 days  490.0              490.0        490.0  spo 04.11 to 16.11
-1 2024-01-05  2024-01-04         44           -0.0           -0.0      -0.0           0           0 0 days    0.0                0.0        490.0  spo 04.11 to 16.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-29  2024-01-04         58           -0.0           -0.0      -0.0           0           0 7 days  406.0              406.0        406.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-04         38           -0.0           -0.0      -0.0           0           0 0 days    0.0                0.0        406.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-25  2023-12-28         40           -0.0           -0.0      -0.0           0           0 4 days  160.0              160.0        580.0  spo 25.11 to 20.12
-1 2023-12-29  2024-01-04         60           -0.0           -0.0      -0.0           0           0 7 days  420.0              420.0        580.0  spo 25.11 to 20.12
-2 2024-01-05  2024-01-04         40           -0.0           -0.0      -0.0           0           0 0 days    0.0                0.0        580.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-26  2023-12-28         32           -0.0           -0.0      -0.0           0           0 3 days   96.0               96.0        418.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-04         46           -0.0           -0.0      -0.0           0           0 7 days  322.0              322.0        418.0  spo 21.12 to 31.01
-2 2024-01-05  2024-01-04         30           -0.0           -0.0      -0.0           0           0 0 days    0.0                0.0        418.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-29  2024-01-04        64           -0.0           -0.0      -0.0           0           0 7 days  448.0              448.0        448.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-04        44           -0.0           -0.0      -0.0           0           0 0 days    0.0                0.0        448.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-01         58           -0.0           -0.0      -0.0           0           0 3 days  174.0              174.0        174.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-02  2024-01-04         46           -0.0           -0.0      -0.0           0           0 3 days  138.0              138.0        138.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-04         30           -0.0           -0.0      -0.0           0           0 0 days    0.0                0.0        138.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04         60           -0.0           -0.0      -0.0           0           0 6 days  360.0              360.0        400.0  spo 25.11 to 20.12
-1 2024-01-05  2024-01-05         40           -0.0           -0.0      -0.0           0           0 1 days   40.0               40.0        400.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04         58           -0.0           -0.0      -0.0           0           0 6 days  348.0              348.0        386.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-05         38           -0.0           -0.0      -0.0           0           0 1 days   38.0               38.0        386.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04         46           -0.0           -0.0      -0.0           0           0 6 days  276.0              276.0        306.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-05         30           -0.0           -0.0      -0.0           0           0 1 days   30.0               30.0        306.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-27  2023-12-28         40           -0.0           -0.0      -0.0           0           0 2 days   80.0               80.0        524.0  spo 21.12 to 31.01
-1 2023-12-29  2024-01-04         58           -0.0           -0.0      -0.0           0           0 7 days  406.0              406.0        524.0  spo 21.12 to 31.01
-2 2024-01-05  2024-01-05         38           -0.0           -0.0      -0.0           0           0 1 days   38.0               38.0        524.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04         49           -0.0           -0.0      -0.0           0           0 6 days  294.0              294.0        327.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-05         33           -0.0           -0.0      -0.0           0           0 1 days   33.0               33.0        327.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04        64           -0.0           -0.0      -0.0           0           0 6 days  384.0              384.0        428.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-05        44           -0.0           -0.0      -0.0           0           0 1 days   44.0               44.0        428.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04        66           -0.0           -0.0      -0.0           0           0 5 days  330.0              330.0        376.0  spo 25.11 to 20.12
-1 2024-01-05  2024-01-05        46           -0.0           -0.0      -0.0           0           0 1 days   46.0               46.0        376.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04        64           -0.0           -0.0      -0.0           0           0 5 days  320.0              320.0        364.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-05        44           -0.0           -0.0      -0.0           0           0 1 days   44.0               44.0        364.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04        66           -0.0           -0.0      -0.0           0           0 6 days  396.0              396.0        442.0  spo 25.11 to 20.12
-1 2024-01-05  2024-01-05        46           -0.0           -0.0      -0.0           0           0 1 days   46.0               46.0        442.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04         46           -0.0           -0.0      -0.0           0           0 5 days  230.0              230.0        290.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-06         30           -0.0           -0.0      -0.0           0           0 2 days   60.0               60.0        290.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-29  2024-01-04         58           -0.0           -0.0      -0.0           0           0 7 days  406.0              406.0        482.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-06         38           -0.0           -0.0      -0.0           0           0 2 days   76.0               76.0        482.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04         58           -0.0           -0.0      -0.0           0           0 5 days  290.0              290.0        366.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-06         38           -0.0           -0.0      -0.0           0           0 2 days   76.0               76.0        366.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04         56           -0.0           -0.0      -0.0           0           0 5 days  280.0              280.0        352.0  spo 24.11 to 24.11
-1 2024-01-05  2024-01-06         36           -0.0           -0.0      -0.0           0           0 2 days   72.0               72.0        352.0  spo 24.11 to 24.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04         74           -0.0           -0.0      -0.0           0           0 5 days  370.0              370.0        466.0  spo 25.10 to 03.11
-1 2024-01-05  2024-01-06         48           -0.0           -0.0      -0.0           0           0 2 days   96.0               96.0        466.0  spo 25.10 to 03.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04        64           -0.0           -0.0      -0.0           0           0 5 days  320.0              320.0        408.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-06        44           -0.0           -0.0      -0.0           0           0 2 days   88.0               88.0        408.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04         70           -0.0           -0.0      -0.0           0           0 5 days  350.0              350.0        438.0  spo 04.11 to 16.11
-1 2024-01-05  2024-01-06         44           -0.0           -0.0      -0.0           0           0 2 days   88.0               88.0        438.0  spo 04.11 to 16.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-02  2024-01-04         58           -0.0           -0.0      -0.0           0           0 3 days  174.0              174.0        288.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-07         38           -0.0           -0.0      -0.0           0           0 3 days  114.0              114.0        288.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-02  2024-01-04         58           -0.0           -0.0      -0.0           0           0 3 days  174.0              174.0        326.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-08         38           -0.0           -0.0      -0.0           0           0 4 days  152.0              152.0        326.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-03  2024-01-04         58           -0.0           -0.0      -0.0           0           0 2 days  116.0              116.0        268.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-08         38           -0.0           -0.0      -0.0           0           0 4 days  152.0              152.0        268.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-31  2024-01-04         58           -0.0           -0.0      -0.0           0           0 5 days  290.0              290.0        442.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-08         38           -0.0           -0.0      -0.0           0           0 4 days  152.0              152.0        442.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-03  2024-01-04         46           -0.0           -0.0      -0.0           0           0 2 days   92.0               92.0        212.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-08         30           -0.0           -0.0      -0.0           0           0 4 days  120.0              120.0        212.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04        64           -0.0           -0.0      -0.0           0           0 6 days  384.0              384.0        560.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-08        44           -0.0           -0.0      -0.0           0           0 4 days  176.0              176.0        560.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-03  2024-01-04         58           -0.0           -0.0      -0.0           0           0 2 days  116.0              116.0        306.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-09         38           -0.0           -0.0      -0.0           0           0 5 days  190.0              190.0        306.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-06  2024-01-09         30           -0.0           -0.0      -0.0           0           0 4 days  120.0              120.0        120.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-04  2024-01-04         58           -0.0           -0.0      -0.0           0           0 1 days   58.0               58.0        248.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-09         38           -0.0           -0.0      -0.0           0           0 5 days  190.0              190.0        248.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-04  2024-01-04         46           -0.0           -0.0      -0.0           0           0 1 days   46.0               46.0        196.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-09         30           -0.0           -0.0      -0.0           0           0 5 days  150.0              150.0        196.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-04  2024-01-04        64           -0.0           -0.0      -0.0           0           0 1 days   64.0               64.0        328.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-10        44           -0.0           -0.0      -0.0           0           0 6 days  264.0              264.0        328.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-04  2024-01-04         58           -0.0           -0.0      -0.0           0           0 1 days   58.0               58.0        286.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-10         38           -0.0           -0.0      -0.0           0           0 6 days  228.0              228.0        286.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-02  2024-01-04         58           -0.0           -0.0      -0.0           0           0 3 days  174.0              174.0        402.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-10         38           -0.0           -0.0      -0.0           0           0 6 days  228.0              228.0        402.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2023-12-30  2024-01-04         60           -0.0           -0.0      -0.0           0           0 6 days  360.0              360.0        600.0  spo 25.11 to 20.12
-1 2024-01-05  2024-01-10         40           -0.0           -0.0      -0.0           0           0 6 days  240.0              240.0        600.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-05  2024-01-11         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-02  2024-01-04         60           -0.0           -0.0      -0.0           0           0 3 days  180.0              180.0        460.0  spo 25.11 to 20.12
-1 2024-01-05  2024-01-11         40           -0.0           -0.0      -0.0           0           0 7 days  280.0              280.0        460.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-05  2024-01-11        46           -0.0           -0.0      -0.0           0           0 7 days  322.0              322.0        322.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-06  2024-01-11         38           -0.0           -0.0      -0.0           0           0 6 days  228.0              228.0        228.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-05  2024-01-11         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-11  2024-01-11         33           -0.0           -0.0      -0.0           0           0 1 days   33.0               33.0         33.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-06  2024-01-12         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-06  2024-01-12         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-09  2024-01-12         30           -0.0           -0.0      -0.0           0           0 4 days  120.0              120.0        120.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-06  2024-01-12         40           -0.0           -0.0      -0.0           0           0 7 days  280.0              280.0        280.0  spo 25.11 to 20.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-04  2024-01-04         58           -0.0           -0.0      -0.0           0           0 1 days   58.0               58.0        400.0  spo 21.12 to 31.01
-1 2024-01-05  2024-01-13         38           -0.0           -0.0      -0.0           0           0 9 days  342.0              342.0        400.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-07  2024-01-13         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-07  2024-01-13         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-05  2024-01-13         38           -0.0           -0.0      -0.0           0           0 9 days  342.0              342.0        342.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-07  2024-01-13         33           -0.0           -0.0      -0.0           0           0 7 days  231.0              231.0        231.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-06  2024-01-13         30           -0.0           -0.0      -0.0           0           0 8 days  240.0              240.0        240.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-08  2024-01-14         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-08  2024-01-14         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-06  2024-01-14         30           -0.0           -0.0      -0.0           0           0 9 days  270.0              270.0        270.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-07  2024-01-14         30           -0.0           -0.0      -0.0           0           0 8 days  240.0              240.0        240.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-09  2024-01-14         38           -0.0           -0.0      -0.0           0           0 6 days  228.0              228.0        228.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-09  2024-01-14         30           -0.0           -0.0      -0.0           0           0 6 days  180.0              180.0        180.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-08  2024-01-15         38           -0.0           -0.0      -0.0           0           0 8 days  304.0              304.0        304.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-07  2024-01-15         38           -0.0           -0.0      -0.0           0           0 9 days  342.0              342.0        342.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-10  2024-01-15         38           -0.0           -0.0      -0.0           0           0 6 days  228.0              228.0        228.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-09  2024-01-15         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-10  2024-01-15         30           -0.0           -0.0      -0.0           0           0 6 days  180.0              180.0        180.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-08  2024-01-15         30           -0.0           -0.0      -0.0           0           0 8 days  240.0              240.0        240.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-09  2024-01-16         38           -0.0           -0.0      -0.0           0           0 8 days  304.0              304.0        304.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-10  2024-01-16         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-05  2024-01-16         38           -0.0           -0.0      -0.0           0           0 12 days  456.0              456.0        456.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-10  2024-01-16         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-08  2024-01-17         30           -0.0           -0.0      -0.0           0           0 10 days  300.0              300.0        300.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-14  2024-01-17         38           -0.0           -0.0      -0.0           0           0 4 days  152.0              152.0        152.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-04  2024-01-04         70           -0.0           -0.0      -0.0           0           0  1 days   70.0               70.0        642.0  spo 04.11 to 16.11
-1 2024-01-05  2024-01-17         44           -0.0           -0.0      -0.0           0           0 13 days  572.0              572.0        642.0  spo 04.11 to 16.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-11  2024-01-18         38           -0.0           -0.0      -0.0           0           0 8 days  304.0              304.0        304.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-09  2024-01-18         33           -0.0           -0.0      -0.0           0           0 10 days  330.0              330.0        330.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-16  2024-01-19         30           -0.0           -0.0      -0.0           0           0 4 days  120.0              120.0        120.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-13  2024-01-19         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-14  2024-01-20         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-13  2024-01-20         38           -0.0           -0.0      -0.0           0           0 8 days  304.0              304.0        304.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-14  2024-01-20         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-12  2024-01-21        44           -0.0           -0.0      -0.0           0           0 10 days  440.0              440.0        440.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-15  2024-01-21         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-15  2024-01-21         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-16  2024-01-22         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-15  2024-01-22         30           -0.0           -0.0      -0.0           0           0 8 days  240.0              240.0        240.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-15  2024-01-22         38           -0.0           -0.0      -0.0           0           0 8 days  304.0              304.0        304.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-16  2024-01-23         38           -0.0           -0.0      -0.0           0           0 8 days  304.0              304.0        304.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-17  2024-01-23         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-13  2024-01-23         38           -0.0           -0.0      -0.0           0           0 11 days  418.0              418.0        418.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-14  2024-01-23         33           -0.0           -0.0      -0.0           0           0 10 days  330.0              330.0        330.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-17  2024-01-23         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-15  2024-01-23         38           -0.0           -0.0      -0.0           0           0 9 days  342.0              342.0        342.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-18  2024-01-24         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-18  2024-01-24        44           -0.0           -0.0      -0.0           0           0 7 days  308.0              308.0        308.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-18  2024-01-24         33           -0.0           -0.0      -0.0           0           0 7 days  231.0              231.0        231.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-18  2024-01-24         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-17  2024-01-24         30           -0.0           -0.0      -0.0           0           0 8 days  240.0              240.0        240.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-17  2024-01-24         38           -0.0           -0.0      -0.0           0           0 8 days  304.0              304.0        304.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-19  2024-01-25         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-17  2024-01-25         30           -0.0           -0.0      -0.0           0           0 9 days  270.0              270.0        270.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-13  2024-01-25         38           -0.0           -0.0      -0.0           0           0 13 days  494.0              494.0        494.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-22  2024-01-27         30           -0.0           -0.0      -0.0           0           0 6 days  180.0              180.0        180.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-14  2024-01-27         38           -0.0           -0.0      -0.0           0           0 14 days  532.0              532.0        532.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-21  2024-01-27         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  price with offers  total price       contract name
-0 2024-01-14  2024-01-27         44           -0.0           -0.0      -0.0           0           0 14 days  616.0              616.0        616.0  spo 04.11 to 16.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-20  2024-01-27         30           -0.0           -0.0      -0.0           0           0 8 days  240.0              240.0        240.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL- DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-21  2024-01-27        44           -0.0           -0.0      -0.0           0           0 7 days  308.0              308.0        308.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-22  2024-01-28         30           -0.0           -0.0      -0.0           0           0 7 days  210.0              210.0        210.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-22  2024-01-28         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-22  2024-01-29         38           -0.0           -0.0      -0.0           0           0 8 days  304.0              304.0        304.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  SGL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-22  2024-01-29         30           -0.0           -0.0      -0.0           0           0 8 days  240.0              240.0        240.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-23  2024-01-29         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-25  2024-01-30         38           -0.0           -0.0      -0.0           0           0 6 days  228.0              228.0        228.0  spo 21.12 to 31.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  price with offers  total price       contract name
-0 2024-01-24  2024-01-30         38           -0.0           -0.0      -0.0           0           0 7 days  266.0              266.0        266.0  spo 21.12 to 31.01</t>
+    <t xml:space="preserve">  first date second date  DBL - STD  earlyBooking1  earlyBooking2  ...  Nights  price  price with offers total price       contract name
+0 2024-01-14  2024-01-27         44           -0.0           -0.0  ... 14 days  616.0              616.0       616.0  spo 04.11 to 16.11
+[1 rows x 13 columns]</t>
   </si>
 </sst>
 </file>
@@ -1488,15 +927,6 @@
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2">
-        <v>294</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3">
@@ -1568,15 +998,6 @@
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="X3">
-        <v>234</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4">
@@ -1648,15 +1069,6 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4">
-        <v>64</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z4">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5">
@@ -1728,15 +1140,6 @@
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="X5">
-        <v>334</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6">
@@ -1808,15 +1211,6 @@
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6">
-        <v>669</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
@@ -1889,7 +1283,7 @@
         <v>300</v>
       </c>
       <c r="Y7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1966,7 +1360,7 @@
         <v>386</v>
       </c>
       <c r="Y8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2042,15 +1436,6 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9">
-        <v>334</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10">
@@ -2122,15 +1507,6 @@
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10">
-        <v>334</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11">
@@ -2202,15 +1578,6 @@
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="X11">
-        <v>376</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12">
@@ -2282,15 +1649,6 @@
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12">
-        <v>330</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13">
@@ -2363,7 +1721,7 @@
         <v>336</v>
       </c>
       <c r="Y13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2439,15 +1797,6 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14">
-        <v>294</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15">
@@ -2519,15 +1868,6 @@
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15">
-        <v>294</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16">
@@ -2599,15 +1939,6 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16">
-        <v>234</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17">
@@ -2679,15 +2010,6 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17">
-        <v>414</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18">
@@ -2759,15 +2081,6 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18">
-        <v>414</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19">
@@ -2839,15 +2152,6 @@
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19">
-        <v>468</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20">
@@ -2919,15 +2223,6 @@
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20">
-        <v>294</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21">
@@ -2999,15 +2294,6 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21">
-        <v>294</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22">
@@ -3080,7 +2366,7 @@
         <v>300</v>
       </c>
       <c r="Y22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3157,7 +2443,7 @@
         <v>240</v>
       </c>
       <c r="Y23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3234,7 +2520,7 @@
         <v>340</v>
       </c>
       <c r="Y24" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3311,7 +2597,7 @@
         <v>340</v>
       </c>
       <c r="Y25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3387,15 +2673,6 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26">
-        <v>334</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27">
@@ -3467,15 +2744,6 @@
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27">
-        <v>266</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28">
@@ -3548,7 +2816,7 @@
         <v>360</v>
       </c>
       <c r="Y28" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3624,15 +2892,6 @@
       <c r="W29">
         <v>0</v>
       </c>
-      <c r="X29">
-        <v>352</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:26">
       <c r="A30">
@@ -3705,7 +2964,7 @@
         <v>360</v>
       </c>
       <c r="Y30" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3781,15 +3040,6 @@
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31">
-        <v>312</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32">
@@ -3861,15 +3111,6 @@
       <c r="W32">
         <v>0</v>
       </c>
-      <c r="X32">
-        <v>392</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="1:26">
       <c r="A33">
@@ -3941,15 +3182,6 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33">
-        <v>352</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:26">
       <c r="A34">
@@ -4021,15 +3253,6 @@
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34">
-        <v>312</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:26">
       <c r="A35">
@@ -4101,15 +3324,6 @@
       <c r="W35">
         <v>0</v>
       </c>
-      <c r="X35">
-        <v>352</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:26">
       <c r="A36">
@@ -4182,7 +3396,7 @@
         <v>360</v>
       </c>
       <c r="Y36" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4258,15 +3472,6 @@
       <c r="W37">
         <v>0</v>
       </c>
-      <c r="X37">
-        <v>348</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" spans="1:26">
       <c r="A38">
@@ -4338,15 +3543,6 @@
       <c r="W38">
         <v>0</v>
       </c>
-      <c r="X38">
-        <v>352</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:26">
       <c r="A39">
@@ -4419,7 +3615,7 @@
         <v>570</v>
       </c>
       <c r="Y39" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4495,15 +3691,6 @@
       <c r="W40">
         <v>0</v>
       </c>
-      <c r="X40">
-        <v>348</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="1:26">
       <c r="A41">
@@ -4576,7 +3763,7 @@
         <v>360</v>
       </c>
       <c r="Y41" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4653,7 +3840,7 @@
         <v>454</v>
       </c>
       <c r="Y42" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4729,15 +3916,6 @@
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43">
-        <v>394</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="1:26">
       <c r="A44">
@@ -4810,7 +3988,7 @@
         <v>360</v>
       </c>
       <c r="Y44" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4886,15 +4064,6 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45">
-        <v>280</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:26">
       <c r="A46">
@@ -4967,7 +4136,7 @@
         <v>402</v>
       </c>
       <c r="Y46" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5043,15 +4212,6 @@
       <c r="W47">
         <v>0</v>
       </c>
-      <c r="X47">
-        <v>472</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="1:26">
       <c r="A48">
@@ -5123,15 +4283,6 @@
       <c r="W48">
         <v>0</v>
       </c>
-      <c r="X48">
-        <v>312</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" spans="1:26">
       <c r="A49">
@@ -5203,15 +4354,6 @@
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49">
-        <v>532</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:26">
       <c r="A50">
@@ -5284,7 +4426,7 @@
         <v>402</v>
       </c>
       <c r="Y50" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5361,7 +4503,7 @@
         <v>412</v>
       </c>
       <c r="Y51" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5438,7 +4580,7 @@
         <v>454</v>
       </c>
       <c r="Y52" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5515,7 +4657,7 @@
         <v>600</v>
       </c>
       <c r="Y53" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5591,15 +4733,6 @@
       <c r="W54">
         <v>0</v>
       </c>
-      <c r="X54">
-        <v>472</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
     </row>
     <row r="55" spans="1:26">
       <c r="A55">
@@ -5671,15 +4804,6 @@
       <c r="W55">
         <v>0</v>
       </c>
-      <c r="X55">
-        <v>330</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
     </row>
     <row r="56" spans="1:26">
       <c r="A56">
@@ -5751,15 +4875,6 @@
       <c r="W56">
         <v>0</v>
       </c>
-      <c r="X56">
-        <v>232</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" spans="1:26">
       <c r="A57">
@@ -5831,15 +4946,6 @@
       <c r="W57">
         <v>0</v>
       </c>
-      <c r="X57">
-        <v>490</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:26">
       <c r="A58">
@@ -5912,7 +5018,7 @@
         <v>350</v>
       </c>
       <c r="Y58" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -5988,15 +5094,6 @@
       <c r="W59">
         <v>0</v>
       </c>
-      <c r="X59">
-        <v>370</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:26">
       <c r="A60">
@@ -6068,15 +5165,6 @@
       <c r="W60">
         <v>0</v>
       </c>
-      <c r="X60">
-        <v>330</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
     </row>
     <row r="61" spans="1:26">
       <c r="A61">
@@ -6148,15 +5236,6 @@
       <c r="W61">
         <v>0</v>
       </c>
-      <c r="X61">
-        <v>370</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
     </row>
     <row r="62" spans="1:26">
       <c r="A62">
@@ -6229,7 +5308,7 @@
         <v>380</v>
       </c>
       <c r="Y62" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6306,7 +5385,7 @@
         <v>316</v>
       </c>
       <c r="Y63" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6382,15 +5461,6 @@
       <c r="W64">
         <v>0</v>
       </c>
-      <c r="X64">
-        <v>294</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:26">
       <c r="A65">
@@ -6462,15 +5532,6 @@
       <c r="W65">
         <v>0</v>
       </c>
-      <c r="X65">
-        <v>366</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
     </row>
     <row r="66" spans="1:26">
       <c r="A66">
@@ -6542,15 +5603,6 @@
       <c r="W66">
         <v>0</v>
       </c>
-      <c r="X66">
-        <v>469</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:26">
       <c r="A67">
@@ -6622,15 +5674,6 @@
       <c r="W67">
         <v>0</v>
       </c>
-      <c r="X67">
-        <v>412</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" spans="1:26">
       <c r="A68">
@@ -6702,15 +5745,6 @@
       <c r="W68">
         <v>0</v>
       </c>
-      <c r="X68">
-        <v>370</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" spans="1:26">
       <c r="A69">
@@ -6782,15 +5816,6 @@
       <c r="W69">
         <v>0</v>
       </c>
-      <c r="X69">
-        <v>370</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:26">
       <c r="A70">
@@ -6862,15 +5887,6 @@
       <c r="W70">
         <v>0</v>
       </c>
-      <c r="X70">
-        <v>348</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" spans="1:26">
       <c r="A71">
@@ -6943,7 +5959,7 @@
         <v>400</v>
       </c>
       <c r="Y71" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7020,7 +6036,7 @@
         <v>498</v>
       </c>
       <c r="Y72" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7097,7 +6113,7 @@
         <v>882</v>
       </c>
       <c r="Y73" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7174,7 +6190,7 @@
         <v>444</v>
       </c>
       <c r="Y74" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7251,7 +6267,7 @@
         <v>442</v>
       </c>
       <c r="Y75" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7327,15 +6343,6 @@
       <c r="W76">
         <v>0</v>
       </c>
-      <c r="X76">
-        <v>308</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
     </row>
     <row r="77" spans="1:26">
       <c r="A77">
@@ -7407,15 +6414,6 @@
       <c r="W77">
         <v>0</v>
       </c>
-      <c r="X77">
-        <v>348</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
     </row>
     <row r="78" spans="1:26">
       <c r="A78">
@@ -7487,15 +6485,6 @@
       <c r="W78">
         <v>0</v>
       </c>
-      <c r="X78">
-        <v>276</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
     </row>
     <row r="79" spans="1:26">
       <c r="A79">
@@ -7567,15 +6556,6 @@
       <c r="W79">
         <v>0</v>
       </c>
-      <c r="X79">
-        <v>388</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
     </row>
     <row r="80" spans="1:26">
       <c r="A80">
@@ -7648,7 +6628,7 @@
         <v>299</v>
       </c>
       <c r="Y80" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7725,7 +6705,7 @@
         <v>414</v>
       </c>
       <c r="Y81" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7801,15 +6781,6 @@
       <c r="W82">
         <v>0</v>
       </c>
-      <c r="X82">
-        <v>430</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
     </row>
     <row r="83" spans="1:26">
       <c r="B83">
@@ -7875,15 +6846,6 @@
       <c r="W83">
         <v>0</v>
       </c>
-      <c r="X83">
-        <v>372</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
     </row>
     <row r="84" spans="1:26">
       <c r="B84">
@@ -7949,15 +6911,6 @@
       <c r="W84">
         <v>0</v>
       </c>
-      <c r="X84">
-        <v>388</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
     </row>
     <row r="85" spans="1:26">
       <c r="B85">
@@ -8023,15 +6976,6 @@
       <c r="W85">
         <v>0</v>
       </c>
-      <c r="X85">
-        <v>522</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
     </row>
     <row r="86" spans="1:26">
       <c r="B86">
@@ -8097,15 +7041,6 @@
       <c r="W86">
         <v>0</v>
       </c>
-      <c r="X86">
-        <v>522</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
     </row>
     <row r="87" spans="1:26">
       <c r="B87">
@@ -8171,15 +7106,6 @@
       <c r="W87">
         <v>0</v>
       </c>
-      <c r="X87">
-        <v>348</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
     </row>
     <row r="88" spans="1:26">
       <c r="B88">
@@ -8245,15 +7171,6 @@
       <c r="W88">
         <v>0</v>
       </c>
-      <c r="X88">
-        <v>348</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
     </row>
     <row r="89" spans="1:26">
       <c r="B89">
@@ -8320,7 +7237,7 @@
         <v>490</v>
       </c>
       <c r="Y89" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8390,15 +7307,6 @@
       <c r="W90">
         <v>0</v>
       </c>
-      <c r="X90">
-        <v>406</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
     </row>
     <row r="91" spans="1:26">
       <c r="B91">
@@ -8465,7 +7373,7 @@
         <v>580</v>
       </c>
       <c r="Y91" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8535,15 +7443,6 @@
       <c r="W92">
         <v>0</v>
       </c>
-      <c r="X92">
-        <v>418</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
     </row>
     <row r="93" spans="1:26">
       <c r="B93">
@@ -8609,15 +7508,6 @@
       <c r="W93">
         <v>0</v>
       </c>
-      <c r="X93">
-        <v>448</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
     </row>
     <row r="94" spans="1:26">
       <c r="B94">
@@ -8683,15 +7573,6 @@
       <c r="W94">
         <v>0</v>
       </c>
-      <c r="X94">
-        <v>174</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
     </row>
     <row r="95" spans="1:26">
       <c r="B95">
@@ -8757,15 +7638,6 @@
       <c r="W95">
         <v>0</v>
       </c>
-      <c r="X95">
-        <v>138</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
     </row>
     <row r="96" spans="1:26">
       <c r="B96">
@@ -8832,7 +7704,7 @@
         <v>400</v>
       </c>
       <c r="Y96" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -8902,15 +7774,6 @@
       <c r="W97">
         <v>0</v>
       </c>
-      <c r="X97">
-        <v>386</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z97">
-        <v>0</v>
-      </c>
     </row>
     <row r="98" spans="2:26">
       <c r="B98">
@@ -8977,7 +7840,7 @@
         <v>400</v>
       </c>
       <c r="Y98" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9047,15 +7910,6 @@
       <c r="W99">
         <v>0</v>
       </c>
-      <c r="X99">
-        <v>306</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
     </row>
     <row r="100" spans="2:26">
       <c r="B100">
@@ -9121,15 +7975,6 @@
       <c r="W100">
         <v>0</v>
       </c>
-      <c r="X100">
-        <v>386</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
     </row>
     <row r="101" spans="2:26">
       <c r="B101">
@@ -9195,15 +8040,6 @@
       <c r="W101">
         <v>0</v>
       </c>
-      <c r="X101">
-        <v>524</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z101">
-        <v>0</v>
-      </c>
     </row>
     <row r="102" spans="2:26">
       <c r="B102">
@@ -9269,15 +8105,6 @@
       <c r="W102">
         <v>0</v>
       </c>
-      <c r="X102">
-        <v>386</v>
-      </c>
-      <c r="Y102" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z102">
-        <v>0</v>
-      </c>
     </row>
     <row r="103" spans="2:26">
       <c r="B103">
@@ -9343,15 +8170,6 @@
       <c r="W103">
         <v>0</v>
       </c>
-      <c r="X103">
-        <v>386</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
     </row>
     <row r="104" spans="2:26">
       <c r="B104">
@@ -9417,15 +8235,6 @@
       <c r="W104">
         <v>0</v>
       </c>
-      <c r="X104">
-        <v>327</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
     </row>
     <row r="105" spans="2:26">
       <c r="B105">
@@ -9491,15 +8300,6 @@
       <c r="W105">
         <v>0</v>
       </c>
-      <c r="X105">
-        <v>428</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
     </row>
     <row r="106" spans="2:26">
       <c r="B106">
@@ -9566,7 +8366,7 @@
         <v>376</v>
       </c>
       <c r="Y106" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="Z106">
         <v>0</v>
@@ -9636,15 +8436,6 @@
       <c r="W107">
         <v>0</v>
       </c>
-      <c r="X107">
-        <v>364</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
     </row>
     <row r="108" spans="2:26">
       <c r="B108">
@@ -9710,15 +8501,6 @@
       <c r="W108">
         <v>0</v>
       </c>
-      <c r="X108">
-        <v>386</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z108">
-        <v>0</v>
-      </c>
     </row>
     <row r="109" spans="2:26">
       <c r="B109">
@@ -9785,7 +8567,7 @@
         <v>442</v>
       </c>
       <c r="Y109" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="Z109">
         <v>0</v>
@@ -9855,15 +8637,6 @@
       <c r="W110">
         <v>0</v>
       </c>
-      <c r="X110">
-        <v>327</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
     </row>
     <row r="111" spans="2:26">
       <c r="B111">
@@ -9929,15 +8702,6 @@
       <c r="W111">
         <v>0</v>
       </c>
-      <c r="X111">
-        <v>290</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z111">
-        <v>0</v>
-      </c>
     </row>
     <row r="112" spans="2:26">
       <c r="B112">
@@ -10003,15 +8767,6 @@
       <c r="W112">
         <v>0</v>
       </c>
-      <c r="X112">
-        <v>482</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
     </row>
     <row r="113" spans="2:26">
       <c r="B113">
@@ -10077,15 +8832,6 @@
       <c r="W113">
         <v>0</v>
       </c>
-      <c r="X113">
-        <v>482</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z113">
-        <v>0</v>
-      </c>
     </row>
     <row r="114" spans="2:26">
       <c r="B114">
@@ -10151,15 +8897,6 @@
       <c r="W114">
         <v>0</v>
       </c>
-      <c r="X114">
-        <v>482</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
     </row>
     <row r="115" spans="2:26">
       <c r="B115">
@@ -10225,15 +8962,6 @@
       <c r="W115">
         <v>0</v>
       </c>
-      <c r="X115">
-        <v>366</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
     </row>
     <row r="116" spans="2:26">
       <c r="B116">
@@ -10299,15 +9027,6 @@
       <c r="W116">
         <v>0</v>
       </c>
-      <c r="X116">
-        <v>366</v>
-      </c>
-      <c r="Y116" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
     </row>
     <row r="117" spans="2:26">
       <c r="B117">
@@ -10374,7 +9093,7 @@
         <v>352</v>
       </c>
       <c r="Y117" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="Z117">
         <v>0</v>
@@ -10444,15 +9163,6 @@
       <c r="W118">
         <v>0</v>
       </c>
-      <c r="X118">
-        <v>366</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
     </row>
     <row r="119" spans="2:26">
       <c r="B119">
@@ -10519,7 +9229,7 @@
         <v>352</v>
       </c>
       <c r="Y119" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="Z119">
         <v>0</v>
@@ -10590,7 +9300,7 @@
         <v>352</v>
       </c>
       <c r="Y120" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="Z120">
         <v>0</v>
@@ -10661,7 +9371,7 @@
         <v>466</v>
       </c>
       <c r="Y121" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="Z121">
         <v>0</v>
@@ -10732,7 +9442,7 @@
         <v>352</v>
       </c>
       <c r="Y122" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="Z122">
         <v>0</v>
@@ -10802,15 +9512,6 @@
       <c r="W123">
         <v>0</v>
       </c>
-      <c r="X123">
-        <v>408</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z123">
-        <v>0</v>
-      </c>
     </row>
     <row r="124" spans="2:26">
       <c r="B124">
@@ -10877,7 +9578,7 @@
         <v>352</v>
       </c>
       <c r="Y124" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="Z124">
         <v>0</v>
@@ -10947,15 +9648,6 @@
       <c r="W125">
         <v>0</v>
       </c>
-      <c r="X125">
-        <v>408</v>
-      </c>
-      <c r="Y125" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
     </row>
     <row r="126" spans="2:26">
       <c r="B126">
@@ -11021,15 +9713,6 @@
       <c r="W126">
         <v>0</v>
       </c>
-      <c r="X126">
-        <v>290</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z126">
-        <v>0</v>
-      </c>
     </row>
     <row r="127" spans="2:26">
       <c r="B127">
@@ -11096,7 +9779,7 @@
         <v>438</v>
       </c>
       <c r="Y127" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="Z127">
         <v>0</v>
@@ -11166,17 +9849,8 @@
       <c r="W128">
         <v>0</v>
       </c>
-      <c r="X128">
-        <v>366</v>
-      </c>
-      <c r="Y128" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:26">
+    </row>
+    <row r="129" spans="2:23">
       <c r="B129">
         <v>116343668862</v>
       </c>
@@ -11240,17 +9914,8 @@
       <c r="W129">
         <v>0</v>
       </c>
-      <c r="X129">
-        <v>366</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:26">
+    </row>
+    <row r="130" spans="2:23">
       <c r="B130">
         <v>116394104517</v>
       </c>
@@ -11314,17 +9979,8 @@
       <c r="W130">
         <v>0</v>
       </c>
-      <c r="X130">
-        <v>288</v>
-      </c>
-      <c r="Y130" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:26">
+    </row>
+    <row r="131" spans="2:23">
       <c r="B131">
         <v>116364106266</v>
       </c>
@@ -11388,17 +10044,8 @@
       <c r="W131">
         <v>0</v>
       </c>
-      <c r="X131">
-        <v>326</v>
-      </c>
-      <c r="Y131" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:26">
+    </row>
+    <row r="132" spans="2:23">
       <c r="B132">
         <v>116344104505</v>
       </c>
@@ -11462,17 +10109,8 @@
       <c r="W132">
         <v>0</v>
       </c>
-      <c r="X132">
-        <v>268</v>
-      </c>
-      <c r="Y132" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:26">
+    </row>
+    <row r="133" spans="2:23">
       <c r="B133">
         <v>116324104763</v>
       </c>
@@ -11536,17 +10174,8 @@
       <c r="W133">
         <v>0</v>
       </c>
-      <c r="X133">
-        <v>268</v>
-      </c>
-      <c r="Y133" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:26">
+    </row>
+    <row r="134" spans="2:23">
       <c r="B134">
         <v>116303669483</v>
       </c>
@@ -11610,17 +10239,8 @@
       <c r="W134">
         <v>0</v>
       </c>
-      <c r="X134">
-        <v>442</v>
-      </c>
-      <c r="Y134" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:26">
+    </row>
+    <row r="135" spans="2:23">
       <c r="B135">
         <v>115353650977</v>
       </c>
@@ -11684,17 +10304,8 @@
       <c r="W135">
         <v>0</v>
       </c>
-      <c r="X135">
-        <v>442</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:26">
+    </row>
+    <row r="136" spans="2:23">
       <c r="B136">
         <v>116334105587</v>
       </c>
@@ -11758,17 +10369,8 @@
       <c r="W136">
         <v>0</v>
       </c>
-      <c r="X136">
-        <v>212</v>
-      </c>
-      <c r="Y136" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:26">
+    </row>
+    <row r="137" spans="2:23">
       <c r="B137">
         <v>116373666151</v>
       </c>
@@ -11832,17 +10434,8 @@
       <c r="W137">
         <v>0</v>
       </c>
-      <c r="X137">
-        <v>560</v>
-      </c>
-      <c r="Y137" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:26">
+    </row>
+    <row r="138" spans="2:23">
       <c r="B138">
         <v>116334104139</v>
       </c>
@@ -11906,17 +10499,8 @@
       <c r="W138">
         <v>0</v>
       </c>
-      <c r="X138">
-        <v>306</v>
-      </c>
-      <c r="Y138" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:26">
+    </row>
+    <row r="139" spans="2:23">
       <c r="B139">
         <v>116314107541</v>
       </c>
@@ -11980,17 +10564,8 @@
       <c r="W139">
         <v>0</v>
       </c>
-      <c r="X139">
-        <v>120</v>
-      </c>
-      <c r="Y139" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:26">
+    </row>
+    <row r="140" spans="2:23">
       <c r="B140">
         <v>116334104894</v>
       </c>
@@ -12054,17 +10629,8 @@
       <c r="W140">
         <v>0</v>
       </c>
-      <c r="X140">
-        <v>248</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:26">
+    </row>
+    <row r="141" spans="2:23">
       <c r="B141">
         <v>116334106393</v>
       </c>
@@ -12128,17 +10694,8 @@
       <c r="W141">
         <v>0</v>
       </c>
-      <c r="X141">
-        <v>196</v>
-      </c>
-      <c r="Y141" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:26">
+    </row>
+    <row r="142" spans="2:23">
       <c r="B142">
         <v>116324105784</v>
       </c>
@@ -12202,17 +10759,8 @@
       <c r="W142">
         <v>0</v>
       </c>
-      <c r="X142">
-        <v>328</v>
-      </c>
-      <c r="Y142" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:26">
+    </row>
+    <row r="143" spans="2:23">
       <c r="B143">
         <v>116324105784</v>
       </c>
@@ -12276,17 +10824,8 @@
       <c r="W143">
         <v>0</v>
       </c>
-      <c r="X143">
-        <v>286</v>
-      </c>
-      <c r="Y143" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:26">
+    </row>
+    <row r="144" spans="2:23">
       <c r="B144">
         <v>116344104581</v>
       </c>
@@ -12348,15 +10887,6 @@
         <v>0</v>
       </c>
       <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>402</v>
-      </c>
-      <c r="Y144" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z144">
         <v>0</v>
       </c>
     </row>
@@ -12424,15 +10954,6 @@
       <c r="W145">
         <v>0</v>
       </c>
-      <c r="X145">
-        <v>286</v>
-      </c>
-      <c r="Y145" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
     </row>
     <row r="146" spans="1:26">
       <c r="B146">
@@ -12498,15 +11019,6 @@
       <c r="W146">
         <v>0</v>
       </c>
-      <c r="X146">
-        <v>286</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z146">
-        <v>0</v>
-      </c>
     </row>
     <row r="147" spans="1:26">
       <c r="B147">
@@ -12572,15 +11084,6 @@
       <c r="W147">
         <v>0</v>
       </c>
-      <c r="X147">
-        <v>286</v>
-      </c>
-      <c r="Y147" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
     </row>
     <row r="148" spans="1:26">
       <c r="B148">
@@ -12647,7 +11150,7 @@
         <v>600</v>
       </c>
       <c r="Y148" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="Z148">
         <v>0</v>
@@ -12717,15 +11220,6 @@
       <c r="W149">
         <v>0</v>
       </c>
-      <c r="X149">
-        <v>266</v>
-      </c>
-      <c r="Y149" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
     </row>
     <row r="150" spans="1:26">
       <c r="B150">
@@ -12792,7 +11286,7 @@
         <v>460</v>
       </c>
       <c r="Y150" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="Z150">
         <v>0</v>
@@ -12869,7 +11363,7 @@
         <v>322</v>
       </c>
       <c r="Y151" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="Z151">
         <v>0</v>
@@ -12945,15 +11439,6 @@
       <c r="W152">
         <v>0</v>
       </c>
-      <c r="X152">
-        <v>228</v>
-      </c>
-      <c r="Y152" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
     </row>
     <row r="153" spans="1:26">
       <c r="A153">
@@ -13025,15 +11510,6 @@
       <c r="W153">
         <v>0</v>
       </c>
-      <c r="X153">
-        <v>210</v>
-      </c>
-      <c r="Y153" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
     </row>
     <row r="154" spans="1:26">
       <c r="A154">
@@ -13105,15 +11581,6 @@
       <c r="W154">
         <v>0</v>
       </c>
-      <c r="X154">
-        <v>228</v>
-      </c>
-      <c r="Y154" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z154">
-        <v>0</v>
-      </c>
     </row>
     <row r="155" spans="1:26">
       <c r="A155">
@@ -13185,15 +11652,6 @@
       <c r="W155">
         <v>0</v>
       </c>
-      <c r="X155">
-        <v>266</v>
-      </c>
-      <c r="Y155" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
     </row>
     <row r="156" spans="1:26">
       <c r="A156">
@@ -13265,15 +11723,6 @@
       <c r="W156">
         <v>0</v>
       </c>
-      <c r="X156">
-        <v>33</v>
-      </c>
-      <c r="Y156" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z156">
-        <v>0</v>
-      </c>
     </row>
     <row r="157" spans="1:26">
       <c r="A157">
@@ -13345,15 +11794,6 @@
       <c r="W157">
         <v>0</v>
       </c>
-      <c r="X157">
-        <v>266</v>
-      </c>
-      <c r="Y157" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z157">
-        <v>0</v>
-      </c>
     </row>
     <row r="158" spans="1:26">
       <c r="A158">
@@ -13425,15 +11865,6 @@
       <c r="W158">
         <v>0</v>
       </c>
-      <c r="X158">
-        <v>266</v>
-      </c>
-      <c r="Y158" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
     </row>
     <row r="159" spans="1:26">
       <c r="A159">
@@ -13505,15 +11936,6 @@
       <c r="W159">
         <v>0</v>
       </c>
-      <c r="X159">
-        <v>210</v>
-      </c>
-      <c r="Y159" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z159">
-        <v>0</v>
-      </c>
     </row>
     <row r="160" spans="1:26">
       <c r="A160">
@@ -13585,15 +12007,6 @@
       <c r="W160">
         <v>0</v>
       </c>
-      <c r="X160">
-        <v>266</v>
-      </c>
-      <c r="Y160" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z160">
-        <v>0</v>
-      </c>
     </row>
     <row r="161" spans="1:26">
       <c r="A161">
@@ -13665,15 +12078,6 @@
       <c r="W161">
         <v>0</v>
       </c>
-      <c r="X161">
-        <v>120</v>
-      </c>
-      <c r="Y161" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z161">
-        <v>0</v>
-      </c>
     </row>
     <row r="162" spans="1:26">
       <c r="A162">
@@ -13746,7 +12150,7 @@
         <v>280</v>
       </c>
       <c r="Y162" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="Z162">
         <v>0</v>
@@ -13823,7 +12227,7 @@
         <v>280</v>
       </c>
       <c r="Y163" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="Z163">
         <v>0</v>
@@ -13899,15 +12303,6 @@
       <c r="W164">
         <v>0</v>
       </c>
-      <c r="X164">
-        <v>400</v>
-      </c>
-      <c r="Y164" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z164">
-        <v>0</v>
-      </c>
     </row>
     <row r="165" spans="1:26">
       <c r="A165">
@@ -13979,15 +12374,6 @@
       <c r="W165">
         <v>0</v>
       </c>
-      <c r="X165">
-        <v>266</v>
-      </c>
-      <c r="Y165" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z165">
-        <v>0</v>
-      </c>
     </row>
     <row r="166" spans="1:26">
       <c r="A166">
@@ -14059,15 +12445,6 @@
       <c r="W166">
         <v>0</v>
       </c>
-      <c r="X166">
-        <v>210</v>
-      </c>
-      <c r="Y166" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z166">
-        <v>0</v>
-      </c>
     </row>
     <row r="167" spans="1:26">
       <c r="A167">
@@ -14139,15 +12516,6 @@
       <c r="W167">
         <v>0</v>
       </c>
-      <c r="X167">
-        <v>342</v>
-      </c>
-      <c r="Y167" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z167">
-        <v>0</v>
-      </c>
     </row>
     <row r="168" spans="1:26">
       <c r="A168">
@@ -14219,15 +12587,6 @@
       <c r="W168">
         <v>0</v>
       </c>
-      <c r="X168">
-        <v>266</v>
-      </c>
-      <c r="Y168" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z168">
-        <v>0</v>
-      </c>
     </row>
     <row r="169" spans="1:26">
       <c r="A169">
@@ -14299,15 +12658,6 @@
       <c r="W169">
         <v>0</v>
       </c>
-      <c r="X169">
-        <v>231</v>
-      </c>
-      <c r="Y169" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
     </row>
     <row r="170" spans="1:26">
       <c r="A170">
@@ -14379,15 +12729,6 @@
       <c r="W170">
         <v>0</v>
       </c>
-      <c r="X170">
-        <v>266</v>
-      </c>
-      <c r="Y170" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
-      </c>
     </row>
     <row r="171" spans="1:26">
       <c r="A171">
@@ -14459,15 +12800,6 @@
       <c r="W171">
         <v>0</v>
       </c>
-      <c r="X171">
-        <v>400</v>
-      </c>
-      <c r="Y171" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
     </row>
     <row r="172" spans="1:26">
       <c r="A172">
@@ -14539,15 +12871,6 @@
       <c r="W172">
         <v>0</v>
       </c>
-      <c r="X172">
-        <v>240</v>
-      </c>
-      <c r="Y172" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z172">
-        <v>0</v>
-      </c>
     </row>
     <row r="173" spans="1:26">
       <c r="A173">
@@ -14619,15 +12942,6 @@
       <c r="W173">
         <v>0</v>
       </c>
-      <c r="X173">
-        <v>210</v>
-      </c>
-      <c r="Y173" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
     </row>
     <row r="174" spans="1:26">
       <c r="A174">
@@ -14699,15 +13013,6 @@
       <c r="W174">
         <v>0</v>
       </c>
-      <c r="X174">
-        <v>266</v>
-      </c>
-      <c r="Y174" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z174">
-        <v>0</v>
-      </c>
     </row>
     <row r="175" spans="1:26">
       <c r="A175">
@@ -14779,15 +13084,6 @@
       <c r="W175">
         <v>0</v>
       </c>
-      <c r="X175">
-        <v>266</v>
-      </c>
-      <c r="Y175" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z175">
-        <v>0</v>
-      </c>
     </row>
     <row r="176" spans="1:26">
       <c r="A176">
@@ -14859,17 +13155,8 @@
       <c r="W176">
         <v>0</v>
       </c>
-      <c r="X176">
-        <v>210</v>
-      </c>
-      <c r="Y176" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26">
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177">
         <v>27</v>
       </c>
@@ -14939,17 +13226,8 @@
       <c r="W177">
         <v>0</v>
       </c>
-      <c r="X177">
-        <v>270</v>
-      </c>
-      <c r="Y177" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26">
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178">
         <v>28</v>
       </c>
@@ -15019,17 +13297,8 @@
       <c r="W178">
         <v>0</v>
       </c>
-      <c r="X178">
-        <v>266</v>
-      </c>
-      <c r="Y178" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26">
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179">
         <v>29</v>
       </c>
@@ -15099,17 +13368,8 @@
       <c r="W179">
         <v>0</v>
       </c>
-      <c r="X179">
-        <v>240</v>
-      </c>
-      <c r="Y179" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26">
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180">
         <v>2</v>
       </c>
@@ -15179,17 +13439,8 @@
       <c r="W180">
         <v>0</v>
       </c>
-      <c r="X180">
-        <v>210</v>
-      </c>
-      <c r="Y180" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26">
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181">
         <v>3</v>
       </c>
@@ -15259,17 +13510,8 @@
       <c r="W181">
         <v>0</v>
       </c>
-      <c r="X181">
-        <v>270</v>
-      </c>
-      <c r="Y181" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26">
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182">
         <v>4</v>
       </c>
@@ -15339,17 +13581,8 @@
       <c r="W182">
         <v>0</v>
       </c>
-      <c r="X182">
-        <v>228</v>
-      </c>
-      <c r="Y182" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26">
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183">
         <v>5</v>
       </c>
@@ -15419,17 +13652,8 @@
       <c r="W183">
         <v>0</v>
       </c>
-      <c r="X183">
-        <v>180</v>
-      </c>
-      <c r="Y183" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26">
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184">
         <v>6</v>
       </c>
@@ -15499,17 +13723,8 @@
       <c r="W184">
         <v>0</v>
       </c>
-      <c r="X184">
-        <v>304</v>
-      </c>
-      <c r="Y184" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26">
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185">
         <v>7</v>
       </c>
@@ -15579,17 +13794,8 @@
       <c r="W185">
         <v>0</v>
       </c>
-      <c r="X185">
-        <v>342</v>
-      </c>
-      <c r="Y185" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:26">
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186">
         <v>8</v>
       </c>
@@ -15659,17 +13865,8 @@
       <c r="W186">
         <v>0</v>
       </c>
-      <c r="X186">
-        <v>228</v>
-      </c>
-      <c r="Y186" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:26">
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187">
         <v>9</v>
       </c>
@@ -15739,17 +13936,8 @@
       <c r="W187">
         <v>0</v>
       </c>
-      <c r="X187">
-        <v>266</v>
-      </c>
-      <c r="Y187" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:26">
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188">
         <v>10</v>
       </c>
@@ -15819,17 +14007,8 @@
       <c r="W188">
         <v>0</v>
       </c>
-      <c r="X188">
-        <v>180</v>
-      </c>
-      <c r="Y188" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:26">
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189">
         <v>11</v>
       </c>
@@ -15899,17 +14078,8 @@
       <c r="W189">
         <v>0</v>
       </c>
-      <c r="X189">
-        <v>342</v>
-      </c>
-      <c r="Y189" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:26">
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190">
         <v>12</v>
       </c>
@@ -15979,17 +14149,8 @@
       <c r="W190">
         <v>0</v>
       </c>
-      <c r="X190">
-        <v>240</v>
-      </c>
-      <c r="Y190" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:26">
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191">
         <v>13</v>
       </c>
@@ -16059,17 +14220,8 @@
       <c r="W191">
         <v>0</v>
       </c>
-      <c r="X191">
-        <v>304</v>
-      </c>
-      <c r="Y191" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:26">
+    </row>
+    <row r="192" spans="1:23">
       <c r="A192">
         <v>14</v>
       </c>
@@ -16137,15 +14289,6 @@
         <v>0</v>
       </c>
       <c r="W192">
-        <v>0</v>
-      </c>
-      <c r="X192">
-        <v>304</v>
-      </c>
-      <c r="Y192" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z192">
         <v>0</v>
       </c>
     </row>
@@ -16219,15 +14362,6 @@
       <c r="W193">
         <v>0</v>
       </c>
-      <c r="X193">
-        <v>266</v>
-      </c>
-      <c r="Y193" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z193">
-        <v>0</v>
-      </c>
     </row>
     <row r="194" spans="1:26">
       <c r="A194">
@@ -16299,15 +14433,6 @@
       <c r="W194">
         <v>0</v>
       </c>
-      <c r="X194">
-        <v>456</v>
-      </c>
-      <c r="Y194" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z194">
-        <v>0</v>
-      </c>
     </row>
     <row r="195" spans="1:26">
       <c r="A195">
@@ -16379,15 +14504,6 @@
       <c r="W195">
         <v>0</v>
       </c>
-      <c r="X195">
-        <v>210</v>
-      </c>
-      <c r="Y195" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z195">
-        <v>0</v>
-      </c>
     </row>
     <row r="196" spans="1:26">
       <c r="A196">
@@ -16459,15 +14575,6 @@
       <c r="W196">
         <v>0</v>
       </c>
-      <c r="X196">
-        <v>266</v>
-      </c>
-      <c r="Y196" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z196">
-        <v>0</v>
-      </c>
     </row>
     <row r="197" spans="1:26">
       <c r="A197">
@@ -16539,15 +14646,6 @@
       <c r="W197">
         <v>0</v>
       </c>
-      <c r="X197">
-        <v>300</v>
-      </c>
-      <c r="Y197" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z197">
-        <v>0</v>
-      </c>
     </row>
     <row r="198" spans="1:26">
       <c r="A198">
@@ -16619,15 +14717,6 @@
       <c r="W198">
         <v>0</v>
       </c>
-      <c r="X198">
-        <v>152</v>
-      </c>
-      <c r="Y198" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z198">
-        <v>0</v>
-      </c>
     </row>
     <row r="199" spans="1:26">
       <c r="A199">
@@ -16700,7 +14789,7 @@
         <v>642</v>
       </c>
       <c r="Y199" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="Z199">
         <v>0</v>
@@ -16776,15 +14865,6 @@
       <c r="W200">
         <v>0</v>
       </c>
-      <c r="X200">
-        <v>304</v>
-      </c>
-      <c r="Y200" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z200">
-        <v>0</v>
-      </c>
     </row>
     <row r="201" spans="1:26">
       <c r="A201">
@@ -16856,15 +14936,6 @@
       <c r="W201">
         <v>0</v>
       </c>
-      <c r="X201">
-        <v>330</v>
-      </c>
-      <c r="Y201" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z201">
-        <v>0</v>
-      </c>
     </row>
     <row r="202" spans="1:26">
       <c r="A202">
@@ -16936,15 +15007,6 @@
       <c r="W202">
         <v>0</v>
       </c>
-      <c r="X202">
-        <v>120</v>
-      </c>
-      <c r="Y202" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z202">
-        <v>0</v>
-      </c>
     </row>
     <row r="203" spans="1:26">
       <c r="A203">
@@ -17016,15 +15078,6 @@
       <c r="W203">
         <v>0</v>
       </c>
-      <c r="X203">
-        <v>266</v>
-      </c>
-      <c r="Y203" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z203">
-        <v>0</v>
-      </c>
     </row>
     <row r="204" spans="1:26">
       <c r="A204">
@@ -17096,15 +15149,6 @@
       <c r="W204">
         <v>0</v>
       </c>
-      <c r="X204">
-        <v>266</v>
-      </c>
-      <c r="Y204" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
     </row>
     <row r="205" spans="1:26">
       <c r="A205">
@@ -17176,15 +15220,6 @@
       <c r="W205">
         <v>0</v>
       </c>
-      <c r="X205">
-        <v>304</v>
-      </c>
-      <c r="Y205" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
     </row>
     <row r="206" spans="1:26">
       <c r="A206">
@@ -17256,15 +15291,6 @@
       <c r="W206">
         <v>0</v>
       </c>
-      <c r="X206">
-        <v>266</v>
-      </c>
-      <c r="Y206" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
     </row>
     <row r="207" spans="1:26">
       <c r="A207">
@@ -17336,15 +15362,6 @@
       <c r="W207">
         <v>0</v>
       </c>
-      <c r="X207">
-        <v>266</v>
-      </c>
-      <c r="Y207" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
     </row>
     <row r="208" spans="1:26">
       <c r="A208">
@@ -17416,17 +15433,8 @@
       <c r="W208">
         <v>0</v>
       </c>
-      <c r="X208">
-        <v>304</v>
-      </c>
-      <c r="Y208" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:26">
+    </row>
+    <row r="209" spans="1:23">
       <c r="A209">
         <v>3</v>
       </c>
@@ -17496,17 +15504,8 @@
       <c r="W209">
         <v>0</v>
       </c>
-      <c r="X209">
-        <v>266</v>
-      </c>
-      <c r="Y209" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:26">
+    </row>
+    <row r="210" spans="1:23">
       <c r="A210">
         <v>4</v>
       </c>
@@ -17576,17 +15575,8 @@
       <c r="W210">
         <v>0</v>
       </c>
-      <c r="X210">
-        <v>304</v>
-      </c>
-      <c r="Y210" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:26">
+    </row>
+    <row r="211" spans="1:23">
       <c r="A211">
         <v>5</v>
       </c>
@@ -17656,17 +15646,8 @@
       <c r="W211">
         <v>0</v>
       </c>
-      <c r="X211">
-        <v>210</v>
-      </c>
-      <c r="Y211" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:26">
+    </row>
+    <row r="212" spans="1:23">
       <c r="A212">
         <v>6</v>
       </c>
@@ -17736,17 +15717,8 @@
       <c r="W212">
         <v>0</v>
       </c>
-      <c r="X212">
-        <v>440</v>
-      </c>
-      <c r="Y212" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:26">
+    </row>
+    <row r="213" spans="1:23">
       <c r="A213">
         <v>7</v>
       </c>
@@ -17816,17 +15788,8 @@
       <c r="W213">
         <v>0</v>
       </c>
-      <c r="X213">
-        <v>266</v>
-      </c>
-      <c r="Y213" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:26">
+    </row>
+    <row r="214" spans="1:23">
       <c r="A214">
         <v>8</v>
       </c>
@@ -17896,17 +15859,8 @@
       <c r="W214">
         <v>0</v>
       </c>
-      <c r="X214">
-        <v>266</v>
-      </c>
-      <c r="Y214" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:26">
+    </row>
+    <row r="215" spans="1:23">
       <c r="A215">
         <v>9</v>
       </c>
@@ -17976,17 +15930,8 @@
       <c r="W215">
         <v>0</v>
       </c>
-      <c r="X215">
-        <v>266</v>
-      </c>
-      <c r="Y215" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:26">
+    </row>
+    <row r="216" spans="1:23">
       <c r="A216">
         <v>10</v>
       </c>
@@ -18056,17 +16001,8 @@
       <c r="W216">
         <v>0</v>
       </c>
-      <c r="X216">
-        <v>210</v>
-      </c>
-      <c r="Y216" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:26">
+    </row>
+    <row r="217" spans="1:23">
       <c r="A217">
         <v>11</v>
       </c>
@@ -18136,17 +16072,8 @@
       <c r="W217">
         <v>0</v>
       </c>
-      <c r="X217">
-        <v>266</v>
-      </c>
-      <c r="Y217" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:26">
+    </row>
+    <row r="218" spans="1:23">
       <c r="A218">
         <v>12</v>
       </c>
@@ -18216,17 +16143,8 @@
       <c r="W218">
         <v>0</v>
       </c>
-      <c r="X218">
-        <v>240</v>
-      </c>
-      <c r="Y218" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:26">
+    </row>
+    <row r="219" spans="1:23">
       <c r="A219">
         <v>13</v>
       </c>
@@ -18296,17 +16214,8 @@
       <c r="W219">
         <v>0</v>
       </c>
-      <c r="X219">
-        <v>304</v>
-      </c>
-      <c r="Y219" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:26">
+    </row>
+    <row r="220" spans="1:23">
       <c r="A220">
         <v>14</v>
       </c>
@@ -18376,17 +16285,8 @@
       <c r="W220">
         <v>0</v>
       </c>
-      <c r="X220">
-        <v>266</v>
-      </c>
-      <c r="Y220" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:26">
+    </row>
+    <row r="221" spans="1:23">
       <c r="A221">
         <v>15</v>
       </c>
@@ -18456,17 +16356,8 @@
       <c r="W221">
         <v>0</v>
       </c>
-      <c r="X221">
-        <v>304</v>
-      </c>
-      <c r="Y221" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:26">
+    </row>
+    <row r="222" spans="1:23">
       <c r="A222">
         <v>16</v>
       </c>
@@ -18536,17 +16427,8 @@
       <c r="W222">
         <v>0</v>
       </c>
-      <c r="X222">
-        <v>266</v>
-      </c>
-      <c r="Y222" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:26">
+    </row>
+    <row r="223" spans="1:23">
       <c r="A223">
         <v>17</v>
       </c>
@@ -18616,17 +16498,8 @@
       <c r="W223">
         <v>0</v>
       </c>
-      <c r="X223">
-        <v>418</v>
-      </c>
-      <c r="Y223" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:26">
+    </row>
+    <row r="224" spans="1:23">
       <c r="A224">
         <v>18</v>
       </c>
@@ -18696,17 +16569,8 @@
       <c r="W224">
         <v>0</v>
       </c>
-      <c r="X224">
-        <v>330</v>
-      </c>
-      <c r="Y224" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:26">
+    </row>
+    <row r="225" spans="1:23">
       <c r="A225">
         <v>19</v>
       </c>
@@ -18776,17 +16640,8 @@
       <c r="W225">
         <v>0</v>
       </c>
-      <c r="X225">
-        <v>210</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:26">
+    </row>
+    <row r="226" spans="1:23">
       <c r="A226">
         <v>20</v>
       </c>
@@ -18856,17 +16711,8 @@
       <c r="W226">
         <v>0</v>
       </c>
-      <c r="X226">
-        <v>210</v>
-      </c>
-      <c r="Y226" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:26">
+    </row>
+    <row r="227" spans="1:23">
       <c r="A227">
         <v>21</v>
       </c>
@@ -18936,17 +16782,8 @@
       <c r="W227">
         <v>0</v>
       </c>
-      <c r="X227">
-        <v>342</v>
-      </c>
-      <c r="Y227" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:26">
+    </row>
+    <row r="228" spans="1:23">
       <c r="A228">
         <v>22</v>
       </c>
@@ -19016,17 +16853,8 @@
       <c r="W228">
         <v>0</v>
       </c>
-      <c r="X228">
-        <v>266</v>
-      </c>
-      <c r="Y228" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:26">
+    </row>
+    <row r="229" spans="1:23">
       <c r="A229">
         <v>23</v>
       </c>
@@ -19096,17 +16924,8 @@
       <c r="W229">
         <v>0</v>
       </c>
-      <c r="X229">
-        <v>266</v>
-      </c>
-      <c r="Y229" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:26">
+    </row>
+    <row r="230" spans="1:23">
       <c r="A230">
         <v>24</v>
       </c>
@@ -19176,17 +16995,8 @@
       <c r="W230">
         <v>0</v>
       </c>
-      <c r="X230">
-        <v>308</v>
-      </c>
-      <c r="Y230" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:26">
+    </row>
+    <row r="231" spans="1:23">
       <c r="A231">
         <v>25</v>
       </c>
@@ -19256,17 +17066,8 @@
       <c r="W231">
         <v>0</v>
       </c>
-      <c r="X231">
-        <v>231</v>
-      </c>
-      <c r="Y231" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:26">
+    </row>
+    <row r="232" spans="1:23">
       <c r="B232">
         <v>116364107225</v>
       </c>
@@ -19330,17 +17131,8 @@
       <c r="W232">
         <v>0</v>
       </c>
-      <c r="X232">
-        <v>308</v>
-      </c>
-      <c r="Y232" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:26">
+    </row>
+    <row r="233" spans="1:23">
       <c r="B233">
         <v>116384108781</v>
       </c>
@@ -19404,17 +17196,8 @@
       <c r="W233">
         <v>0</v>
       </c>
-      <c r="X233">
-        <v>210</v>
-      </c>
-      <c r="Y233" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:26">
+    </row>
+    <row r="234" spans="1:23">
       <c r="B234">
         <v>116324106880</v>
       </c>
@@ -19475,17 +17258,8 @@
       <c r="W234">
         <v>0</v>
       </c>
-      <c r="X234">
-        <v>308</v>
-      </c>
-      <c r="Y234" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:26">
+    </row>
+    <row r="235" spans="1:23">
       <c r="B235">
         <v>116304104730</v>
       </c>
@@ -19546,17 +17320,8 @@
       <c r="W235">
         <v>0</v>
       </c>
-      <c r="X235">
-        <v>240</v>
-      </c>
-      <c r="Y235" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:26">
+    </row>
+    <row r="236" spans="1:23">
       <c r="B236">
         <v>116304111189</v>
       </c>
@@ -19617,17 +17382,8 @@
       <c r="W236">
         <v>0</v>
       </c>
-      <c r="X236">
-        <v>266</v>
-      </c>
-      <c r="Y236" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:26">
+    </row>
+    <row r="237" spans="1:23">
       <c r="B237">
         <v>116394111959</v>
       </c>
@@ -19688,17 +17444,8 @@
       <c r="W237">
         <v>0</v>
       </c>
-      <c r="X237">
-        <v>231</v>
-      </c>
-      <c r="Y237" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:26">
+    </row>
+    <row r="238" spans="1:23">
       <c r="B238">
         <v>116384110326</v>
       </c>
@@ -19759,17 +17506,8 @@
       <c r="W238">
         <v>0</v>
       </c>
-      <c r="X238">
-        <v>304</v>
-      </c>
-      <c r="Y238" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:26">
+    </row>
+    <row r="239" spans="1:23">
       <c r="B239">
         <v>116304109032</v>
       </c>
@@ -19830,17 +17568,8 @@
       <c r="W239">
         <v>0</v>
       </c>
-      <c r="X239">
-        <v>266</v>
-      </c>
-      <c r="Y239" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:26">
+    </row>
+    <row r="240" spans="1:23">
       <c r="B240">
         <v>116324111129</v>
       </c>
@@ -19899,15 +17628,6 @@
         <v>0</v>
       </c>
       <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>270</v>
-      </c>
-      <c r="Y240" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z240">
         <v>0</v>
       </c>
     </row>
@@ -19972,15 +17692,6 @@
       <c r="W241">
         <v>0</v>
       </c>
-      <c r="X241">
-        <v>494</v>
-      </c>
-      <c r="Y241" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
     </row>
     <row r="242" spans="2:26">
       <c r="B242">
@@ -20043,15 +17754,6 @@
       <c r="W242">
         <v>0</v>
       </c>
-      <c r="X242">
-        <v>180</v>
-      </c>
-      <c r="Y242" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
     </row>
     <row r="243" spans="2:26">
       <c r="B243">
@@ -20114,15 +17816,6 @@
       <c r="W243">
         <v>0</v>
       </c>
-      <c r="X243">
-        <v>532</v>
-      </c>
-      <c r="Y243" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
     </row>
     <row r="244" spans="2:26">
       <c r="B244">
@@ -20185,15 +17878,6 @@
       <c r="W244">
         <v>0</v>
       </c>
-      <c r="X244">
-        <v>266</v>
-      </c>
-      <c r="Y244" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z244">
-        <v>0</v>
-      </c>
     </row>
     <row r="245" spans="2:26">
       <c r="B245">
@@ -20257,7 +17941,7 @@
         <v>616</v>
       </c>
       <c r="Y245" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="Z245">
         <v>0</v>
@@ -20324,15 +18008,6 @@
       <c r="W246">
         <v>0</v>
       </c>
-      <c r="X246">
-        <v>266</v>
-      </c>
-      <c r="Y246" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z246">
-        <v>0</v>
-      </c>
     </row>
     <row r="247" spans="2:26">
       <c r="B247">
@@ -20395,15 +18070,6 @@
       <c r="W247">
         <v>0</v>
       </c>
-      <c r="X247">
-        <v>266</v>
-      </c>
-      <c r="Y247" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z247">
-        <v>0</v>
-      </c>
     </row>
     <row r="248" spans="2:26">
       <c r="B248">
@@ -20466,15 +18132,6 @@
       <c r="W248">
         <v>0</v>
       </c>
-      <c r="X248">
-        <v>266</v>
-      </c>
-      <c r="Y248" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
     </row>
     <row r="249" spans="2:26">
       <c r="B249">
@@ -20537,15 +18194,6 @@
       <c r="W249">
         <v>0</v>
       </c>
-      <c r="X249">
-        <v>240</v>
-      </c>
-      <c r="Y249" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z249">
-        <v>0</v>
-      </c>
     </row>
     <row r="250" spans="2:26">
       <c r="B250">
@@ -20608,15 +18256,6 @@
       <c r="W250">
         <v>0</v>
       </c>
-      <c r="X250">
-        <v>266</v>
-      </c>
-      <c r="Y250" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
     </row>
     <row r="251" spans="2:26">
       <c r="B251">
@@ -20679,15 +18318,6 @@
       <c r="W251">
         <v>0</v>
       </c>
-      <c r="X251">
-        <v>266</v>
-      </c>
-      <c r="Y251" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
     </row>
     <row r="252" spans="2:26">
       <c r="B252">
@@ -20750,15 +18380,6 @@
       <c r="W252">
         <v>0</v>
       </c>
-      <c r="X252">
-        <v>308</v>
-      </c>
-      <c r="Y252" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
     </row>
     <row r="253" spans="2:26">
       <c r="B253">
@@ -20821,15 +18442,6 @@
       <c r="W253">
         <v>0</v>
       </c>
-      <c r="X253">
-        <v>210</v>
-      </c>
-      <c r="Y253" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z253">
-        <v>0</v>
-      </c>
     </row>
     <row r="254" spans="2:26">
       <c r="B254">
@@ -20892,15 +18504,6 @@
       <c r="W254">
         <v>0</v>
       </c>
-      <c r="X254">
-        <v>266</v>
-      </c>
-      <c r="Y254" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z254">
-        <v>0</v>
-      </c>
     </row>
     <row r="255" spans="2:26">
       <c r="B255">
@@ -20963,15 +18566,6 @@
       <c r="W255">
         <v>0</v>
       </c>
-      <c r="X255">
-        <v>304</v>
-      </c>
-      <c r="Y255" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z255">
-        <v>0</v>
-      </c>
     </row>
     <row r="256" spans="2:26">
       <c r="B256">
@@ -21034,17 +18628,8 @@
       <c r="W256">
         <v>0</v>
       </c>
-      <c r="X256">
-        <v>240</v>
-      </c>
-      <c r="Y256" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:26">
+    </row>
+    <row r="257" spans="2:23">
       <c r="B257">
         <v>115354100297</v>
       </c>
@@ -21105,17 +18690,8 @@
       <c r="W257">
         <v>0</v>
       </c>
-      <c r="X257">
-        <v>266</v>
-      </c>
-      <c r="Y257" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="2:26">
+    </row>
+    <row r="258" spans="2:23">
       <c r="B258">
         <v>116354112310</v>
       </c>
@@ -21176,17 +18752,8 @@
       <c r="W258">
         <v>0</v>
       </c>
-      <c r="X258">
-        <v>228</v>
-      </c>
-      <c r="Y258" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="2:26">
+    </row>
+    <row r="259" spans="2:23">
       <c r="B259">
         <v>116314111098</v>
       </c>
@@ -21245,15 +18812,6 @@
         <v>0</v>
       </c>
       <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>266</v>
-      </c>
-      <c r="Y259" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z259">
         <v>0</v>
       </c>
     </row>
